--- a/Out/OPCIONES PARA ICA2B - 1.xlsx
+++ b/Out/OPCIONES PARA ICA2B - 1.xlsx
@@ -476,17 +476,9 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI3]</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI3]</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -496,17 +488,9 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI3]</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI3]</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -516,21 +500,9 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI3]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI3]</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -541,13 +513,13 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -555,19 +527,15 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -575,19 +543,15 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -595,19 +559,15 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -615,19 +575,15 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -635,27 +591,19 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>LAB. QUÍMICA [LQU1]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -663,24 +611,12 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>LAB. QUÍMICA [LQU1]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -691,24 +627,12 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>LAB. QUÍMICA [LQU1]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -719,24 +643,12 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>LAB. QUÍMICA [LQU1]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -747,9 +659,17 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
@@ -759,9 +679,17 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
@@ -771,9 +699,17 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
@@ -783,9 +719,17 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -797,16 +741,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -817,16 +769,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -837,16 +797,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -857,16 +825,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -887,9 +863,17 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
@@ -899,9 +883,17 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
@@ -911,9 +903,17 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
@@ -1069,11 +1069,7 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU6]</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -1085,11 +1081,7 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU6]</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
@@ -1101,17 +1093,9 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU6]</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
@@ -1121,27 +1105,15 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU6]</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI8]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI8]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1150,22 +1122,14 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI8]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI8]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1174,22 +1138,14 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI8]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI8]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1199,13 +1155,13 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1215,13 +1171,13 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1229,27 +1185,15 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1257,26 +1201,10 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -1285,26 +1213,10 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -1313,26 +1225,10 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -1341,10 +1237,22 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU9]</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -1353,10 +1261,22 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU9]</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1365,10 +1285,22 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU9]</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1377,10 +1309,22 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU9]</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -1391,16 +1335,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1411,16 +1363,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -1431,16 +1391,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -1451,16 +1419,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1481,9 +1457,17 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
@@ -1493,9 +1477,17 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
@@ -1505,9 +1497,17 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
@@ -1689,11 +1689,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
@@ -1705,13 +1701,13 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1719,19 +1715,15 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1739,19 +1731,15 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1759,19 +1747,15 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1779,19 +1763,15 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1799,27 +1779,19 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>LAB. QUÍMICA [LQU4]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1827,26 +1799,14 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+          <t>LAB. QUÍMICA [LQU4]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -1855,26 +1815,14 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+          <t>LAB. QUÍMICA [LQU4]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -1883,26 +1831,14 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+          <t>LAB. QUÍMICA [LQU4]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -1911,9 +1847,17 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
@@ -1923,9 +1867,17 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
@@ -1935,9 +1887,17 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
@@ -1947,9 +1907,17 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -1961,16 +1929,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1981,16 +1957,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -2001,16 +1985,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -2021,16 +2013,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -2053,13 +2053,13 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI1]</t>
+          <t>QUÍMICA [QUI5]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI1]</t>
+          <t>QUÍMICA [QUI5]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -2073,13 +2073,13 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI1]</t>
+          <t>QUÍMICA [QUI5]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI1]</t>
+          <t>QUÍMICA [QUI5]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -2093,13 +2093,13 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI1]</t>
+          <t>QUÍMICA [QUI5]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI1]</t>
+          <t>QUÍMICA [QUI5]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -2258,17 +2258,9 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI3]</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI3]</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -2278,17 +2270,9 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI3]</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI3]</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -2298,21 +2282,9 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI3]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI3]</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -2323,13 +2295,13 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2339,13 +2311,13 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2355,13 +2327,13 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2371,13 +2343,13 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2387,13 +2359,13 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2401,29 +2373,13 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQU9]</t>
+          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
     </row>
@@ -2433,31 +2389,11 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU9]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2465,31 +2401,11 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU9]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2497,31 +2413,11 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU9]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2529,9 +2425,17 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
@@ -2541,9 +2445,17 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
@@ -2553,9 +2465,17 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
@@ -2565,9 +2485,17 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -2579,16 +2507,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -2599,16 +2535,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -2619,16 +2563,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -2639,16 +2591,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -2660,7 +2620,11 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -2669,10 +2633,22 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -2681,10 +2657,22 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -2693,10 +2681,22 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -2851,9 +2851,17 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -2863,9 +2871,17 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -2875,11 +2891,15 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -2891,15 +2911,23 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2909,13 +2937,13 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2925,13 +2953,13 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2941,13 +2969,13 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2957,13 +2985,13 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2971,29 +2999,17 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>LAB. QUÍMICA [LQU1]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQU9]</t>
+          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
     </row>
@@ -3003,31 +3019,15 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU9]</t>
-        </is>
-      </c>
+          <t>LAB. QUÍMICA [LQU1]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3035,31 +3035,15 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU9]</t>
-        </is>
-      </c>
+          <t>LAB. QUÍMICA [LQU1]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3067,31 +3051,15 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU9]</t>
-        </is>
-      </c>
+          <t>LAB. QUÍMICA [LQU1]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3149,16 +3117,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -3169,16 +3145,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -3189,16 +3173,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -3209,16 +3201,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -3241,13 +3241,13 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI1]</t>
+          <t>QUÍMICA [QUI5]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI1]</t>
+          <t>QUÍMICA [QUI5]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -3261,13 +3261,13 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI1]</t>
+          <t>QUÍMICA [QUI5]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI1]</t>
+          <t>QUÍMICA [QUI5]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -3281,13 +3281,13 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI1]</t>
+          <t>QUÍMICA [QUI5]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI1]</t>
+          <t>QUÍMICA [QUI5]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -3445,9 +3445,17 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -3457,9 +3465,17 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -3469,11 +3485,15 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -3485,23 +3505,23 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI8]</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI8]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3509,27 +3529,15 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI8]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI8]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3537,27 +3545,15 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI8]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI8]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3565,19 +3561,15 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3585,19 +3577,15 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3605,27 +3593,19 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>LAB. QUÍMICA [LQU4]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3633,26 +3613,14 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+          <t>LAB. QUÍMICA [LQU4]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -3661,26 +3629,14 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+          <t>LAB. QUÍMICA [LQU4]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -3689,26 +3645,14 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+          <t>LAB. QUÍMICA [LQU4]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -3767,16 +3711,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -3787,16 +3739,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -3807,16 +3767,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -3827,16 +3795,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -3857,9 +3833,17 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
@@ -3869,9 +3853,17 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
@@ -3881,9 +3873,17 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
@@ -4039,9 +4039,17 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -4051,9 +4059,17 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -4063,11 +4079,15 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -4079,23 +4099,23 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI8]</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI8]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -4104,22 +4124,14 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI8]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI8]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -4128,22 +4140,14 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI8]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI8]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -4153,13 +4157,13 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -4169,13 +4173,13 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -4183,29 +4187,13 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQU9]</t>
+          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
     </row>
@@ -4215,31 +4203,11 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU9]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -4247,31 +4215,11 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU9]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -4279,31 +4227,11 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU9]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -4313,7 +4241,11 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU5]</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
@@ -4325,7 +4257,11 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU5]</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
@@ -4337,7 +4273,11 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU5]</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
@@ -4349,7 +4289,11 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU5]</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -4361,16 +4305,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -4381,16 +4333,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -4401,16 +4361,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -4421,16 +4389,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -4451,9 +4427,17 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
@@ -4463,9 +4447,17 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
@@ -4475,9 +4467,17 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
@@ -4633,9 +4633,17 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -4645,9 +4653,17 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -4657,11 +4673,15 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -4673,15 +4693,23 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -4689,19 +4717,15 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -4709,19 +4733,15 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -4729,21 +4749,13 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI6]</t>
+          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
     </row>
@@ -4753,21 +4765,13 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI6]</t>
+          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
     </row>
@@ -4777,29 +4781,13 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI6]</t>
+          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
     </row>
@@ -4809,31 +4797,11 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -4841,31 +4809,11 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -4873,31 +4821,11 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -4955,16 +4883,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -4975,16 +4911,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -4995,16 +4939,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -5015,16 +4967,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -5036,7 +4996,11 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -5045,10 +5009,22 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -5057,10 +5033,22 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -5069,10 +5057,22 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -5227,22 +5227,10 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU6]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI3]</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI3]</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -5251,22 +5239,10 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU6]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI3]</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI3]</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -5275,26 +5251,10 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU6]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI3]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI3]</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -5303,19 +5263,15 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU6]</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -5325,13 +5281,13 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -5341,13 +5297,13 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -5357,13 +5313,13 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -5373,13 +5329,13 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5389,25 +5345,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>LAB. QUÍMICA [LQU2]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5417,24 +5365,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+          <t>LAB. QUÍMICA [LQU2]</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -5445,24 +5381,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+          <t>LAB. QUÍMICA [LQU2]</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -5473,24 +5397,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+          <t>LAB. QUÍMICA [LQU2]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -5499,9 +5411,17 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
@@ -5511,9 +5431,17 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
@@ -5523,9 +5451,17 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
@@ -5535,9 +5471,17 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -5549,16 +5493,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -5569,16 +5521,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -5589,16 +5549,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -5609,16 +5577,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -5639,9 +5615,17 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
@@ -5651,9 +5635,17 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
@@ -5663,9 +5655,17 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI5]</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
@@ -5823,11 +5823,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQU6]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -5839,11 +5843,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQU6]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -5855,13 +5863,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQU6]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -5875,17 +5883,21 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQU6]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -5895,13 +5907,13 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -5911,13 +5923,13 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -5927,13 +5939,13 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -5943,13 +5955,13 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5959,25 +5971,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>LAB. QUÍMICA [LQU2]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5987,24 +5991,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+          <t>LAB. QUÍMICA [LQU2]</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -6015,24 +6007,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+          <t>LAB. QUÍMICA [LQU2]</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -6043,24 +6023,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+          <t>LAB. QUÍMICA [LQU2]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -6119,16 +6087,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -6139,16 +6115,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -6159,16 +6143,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -6179,16 +6171,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA4]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -6211,13 +6211,13 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI1]</t>
+          <t>QUÍMICA [QUI5]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI1]</t>
+          <t>QUÍMICA [QUI5]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -6231,13 +6231,13 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI1]</t>
+          <t>QUÍMICA [QUI5]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI1]</t>
+          <t>QUÍMICA [QUI5]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -6251,13 +6251,13 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI1]</t>
+          <t>QUÍMICA [QUI5]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI1]</t>
+          <t>QUÍMICA [QUI5]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
